--- a/01_手順書/2D/03_アニメーション.xlsx
+++ b/01_手順書/2D/03_アニメーション.xlsx
@@ -4,24 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="クリックを検知する" sheetId="1" r:id="rId1"/>
+    <sheet name="アニメーション作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>クリックを検知する</t>
-    <rPh sb="5" eb="7">
-      <t>ケンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>①ドラックアンドドロップで画像を配置する</t>
     <rPh sb="13" eb="15">
@@ -36,6 +29,95 @@
     <t>②animatorを追加</t>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③Window&gt;Animation&gt;Animationにてアニメーション設定用のウインドウを表示</t>
+    <rPh sb="36" eb="39">
+      <t>セッテイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ドラックアンドドロップで各秒数で表示したい画像を設定</t>
+    <rPh sb="13" eb="14">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビョウスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤〇（キーフレーム記録）ボタンを押し、各秒数画像の位置や大きさ等を変更する</t>
+    <rPh sb="9" eb="11">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビョウスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥もう一度〇ボタンを押すと、⑤で変更した値に変化するアニメーションが作成できる</t>
+    <rPh sb="3" eb="5">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -271,6 +353,458 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>249382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>540327</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>255442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831273" y="18675927"/>
+          <a:ext cx="12178145" cy="6850206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>595745</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604751</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4959927" y="21197455"/>
+          <a:ext cx="2502824" cy="405246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41565</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="19216255"/>
+          <a:ext cx="1080654" cy="332509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235528</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="858983" y="26905527"/>
+          <a:ext cx="12136581" cy="6826827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>110836</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6968836" y="28207855"/>
+          <a:ext cx="2937164" cy="387927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164715</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>595745</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>144605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="788170" y="34303853"/>
+          <a:ext cx="12276666" cy="6905625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>180112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360219</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4668982" y="34927312"/>
+          <a:ext cx="678873" cy="346362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>96983</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83129</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10072256" y="35356801"/>
+          <a:ext cx="3103418" cy="1385454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831274" y="42644290"/>
+          <a:ext cx="12302835" cy="6920345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -563,34 +1097,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B152"/>
+  <dimension ref="B2:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W59" sqref="W58:W59"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
